--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.338576666666667</v>
+        <v>4.619095000000001</v>
       </c>
       <c r="H2">
-        <v>7.01573</v>
+        <v>13.857285</v>
       </c>
       <c r="I2">
-        <v>0.06036918779536898</v>
+        <v>0.09937071456472289</v>
       </c>
       <c r="J2">
-        <v>0.06036918779536898</v>
+        <v>0.09937071456472289</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>15.85269333333333</v>
+        <v>0.270625</v>
       </c>
       <c r="N2">
-        <v>47.55808</v>
+        <v>0.811875</v>
       </c>
       <c r="O2">
-        <v>0.363669005908797</v>
+        <v>0.00651929904432436</v>
       </c>
       <c r="P2">
-        <v>0.363669005908797</v>
+        <v>0.006519299044324359</v>
       </c>
       <c r="Q2">
-        <v>37.07273873315556</v>
+        <v>1.250042584375</v>
       </c>
       <c r="R2">
-        <v>333.6546485984</v>
+        <v>11.250383259375</v>
       </c>
       <c r="S2">
-        <v>0.02195440251306332</v>
+        <v>0.0006478274044956268</v>
       </c>
       <c r="T2">
-        <v>0.02195440251306332</v>
+        <v>0.0006478274044956267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.338576666666667</v>
+        <v>4.619095000000001</v>
       </c>
       <c r="H3">
-        <v>7.01573</v>
+        <v>13.857285</v>
       </c>
       <c r="I3">
-        <v>0.06036918779536898</v>
+        <v>0.09937071456472289</v>
       </c>
       <c r="J3">
-        <v>0.06036918779536898</v>
+        <v>0.09937071456472289</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.803741</v>
       </c>
       <c r="O3">
-        <v>0.2279044246915194</v>
+        <v>0.2393219402230525</v>
       </c>
       <c r="P3">
-        <v>0.2279044246915194</v>
+        <v>0.2393219402230525</v>
       </c>
       <c r="Q3">
-        <v>23.23277776065889</v>
+        <v>45.88877034479835</v>
       </c>
       <c r="R3">
-        <v>209.09499984593</v>
+        <v>412.998933103185</v>
       </c>
       <c r="S3">
-        <v>0.01375840501359787</v>
+        <v>0.02378159221098063</v>
       </c>
       <c r="T3">
-        <v>0.01375840501359786</v>
+        <v>0.02378159221098063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.338576666666667</v>
+        <v>4.619095000000001</v>
       </c>
       <c r="H4">
-        <v>7.01573</v>
+        <v>13.857285</v>
       </c>
       <c r="I4">
-        <v>0.06036918779536898</v>
+        <v>0.09937071456472289</v>
       </c>
       <c r="J4">
-        <v>0.06036918779536898</v>
+        <v>0.09937071456472289</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.95401766666667</v>
+        <v>14.774121</v>
       </c>
       <c r="N4">
-        <v>44.862053</v>
+        <v>44.322363</v>
       </c>
       <c r="O4">
-        <v>0.3430529200829336</v>
+        <v>0.3559054518837227</v>
       </c>
       <c r="P4">
-        <v>0.3430529200829337</v>
+        <v>0.3559054518837226</v>
       </c>
       <c r="Q4">
-        <v>34.97111678818779</v>
+        <v>68.24306844049501</v>
       </c>
       <c r="R4">
-        <v>314.7400510936901</v>
+        <v>614.1876159644549</v>
       </c>
       <c r="S4">
-        <v>0.02070982615623633</v>
+        <v>0.03536657907116612</v>
       </c>
       <c r="T4">
-        <v>0.02070982615623633</v>
+        <v>0.03536657907116612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.338576666666667</v>
+        <v>4.619095000000001</v>
       </c>
       <c r="H5">
-        <v>7.01573</v>
+        <v>13.857285</v>
       </c>
       <c r="I5">
-        <v>0.06036918779536898</v>
+        <v>0.09937071456472289</v>
       </c>
       <c r="J5">
-        <v>0.06036918779536898</v>
+        <v>0.09937071456472289</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.849702333333333</v>
+        <v>16.53203833333334</v>
       </c>
       <c r="N5">
-        <v>8.549106999999999</v>
+        <v>49.596115</v>
       </c>
       <c r="O5">
-        <v>0.06537364931674991</v>
+        <v>0.3982533088489005</v>
       </c>
       <c r="P5">
-        <v>0.06537364931674992</v>
+        <v>0.3982533088489005</v>
       </c>
       <c r="Q5">
-        <v>6.664247383678889</v>
+        <v>76.36305560530836</v>
       </c>
       <c r="R5">
-        <v>59.97822645311</v>
+        <v>687.2675004477751</v>
       </c>
       <c r="S5">
-        <v>0.00394655411247147</v>
+        <v>0.03957471587808052</v>
       </c>
       <c r="T5">
-        <v>0.003946554112471471</v>
+        <v>0.03957471587808052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>47.945519</v>
       </c>
       <c r="I6">
-        <v>0.4125632030390895</v>
+        <v>0.3438177451937012</v>
       </c>
       <c r="J6">
-        <v>0.4125632030390895</v>
+        <v>0.3438177451937012</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>15.85269333333333</v>
+        <v>0.270625</v>
       </c>
       <c r="N6">
-        <v>47.55808</v>
+        <v>0.811875</v>
       </c>
       <c r="O6">
-        <v>0.363669005908797</v>
+        <v>0.00651929904432436</v>
       </c>
       <c r="P6">
-        <v>0.363669005908797</v>
+        <v>0.006519299044324359</v>
       </c>
       <c r="Q6">
-        <v>253.3552031381689</v>
+        <v>4.325085359791667</v>
       </c>
       <c r="R6">
-        <v>2280.19682824352</v>
+        <v>38.925768238125</v>
       </c>
       <c r="S6">
-        <v>0.1500364499237749</v>
+        <v>0.002241450697663053</v>
       </c>
       <c r="T6">
-        <v>0.1500364499237749</v>
+        <v>0.002241450697663053</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>47.945519</v>
       </c>
       <c r="I7">
-        <v>0.4125632030390895</v>
+        <v>0.3438177451937012</v>
       </c>
       <c r="J7">
-        <v>0.4125632030390895</v>
+        <v>0.3438177451937012</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.803741</v>
       </c>
       <c r="O7">
-        <v>0.2279044246915194</v>
+        <v>0.2393219402230525</v>
       </c>
       <c r="P7">
-        <v>0.2279044246915194</v>
+        <v>0.2393219402230525</v>
       </c>
       <c r="Q7">
         <v>158.7728700429533</v>
@@ -883,10 +883,10 @@
         <v>1428.955830386579</v>
       </c>
       <c r="S7">
-        <v>0.09402497943751421</v>
+        <v>0.08228312986287167</v>
       </c>
       <c r="T7">
-        <v>0.09402497943751421</v>
+        <v>0.08228312986287166</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>47.945519</v>
       </c>
       <c r="I8">
-        <v>0.4125632030390895</v>
+        <v>0.3438177451937012</v>
       </c>
       <c r="J8">
-        <v>0.4125632030390895</v>
+        <v>0.3438177451937012</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.95401766666667</v>
+        <v>14.774121</v>
       </c>
       <c r="N8">
-        <v>44.862053</v>
+        <v>44.322363</v>
       </c>
       <c r="O8">
-        <v>0.3430529200829336</v>
+        <v>0.3559054518837227</v>
       </c>
       <c r="P8">
-        <v>0.3430529200829337</v>
+        <v>0.3559054518837226</v>
       </c>
       <c r="Q8">
-        <v>238.9927127211675</v>
+        <v>236.117633037933</v>
       </c>
       <c r="R8">
-        <v>2150.934414490507</v>
+        <v>2125.058697341397</v>
       </c>
       <c r="S8">
-        <v>0.1415310115213279</v>
+        <v>0.1223666099688069</v>
       </c>
       <c r="T8">
-        <v>0.1415310115213279</v>
+        <v>0.1223666099688068</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>47.945519</v>
       </c>
       <c r="I9">
-        <v>0.4125632030390895</v>
+        <v>0.3438177451937012</v>
       </c>
       <c r="J9">
-        <v>0.4125632030390895</v>
+        <v>0.3438177451937012</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.849702333333333</v>
+        <v>16.53203833333334</v>
       </c>
       <c r="N9">
-        <v>8.549106999999999</v>
+        <v>49.596115</v>
       </c>
       <c r="O9">
-        <v>0.06537364931674991</v>
+        <v>0.3982533088489005</v>
       </c>
       <c r="P9">
-        <v>0.06537364931674992</v>
+        <v>0.3982533088489005</v>
       </c>
       <c r="Q9">
-        <v>45.54348578905922</v>
+        <v>264.2123860065206</v>
       </c>
       <c r="R9">
-        <v>409.891372101533</v>
+        <v>2377.911474058686</v>
       </c>
       <c r="S9">
-        <v>0.02697076215647253</v>
+        <v>0.1369265546643597</v>
       </c>
       <c r="T9">
-        <v>0.02697076215647253</v>
+        <v>0.1369265546643597</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.886534</v>
+        <v>19.63122766666666</v>
       </c>
       <c r="H10">
-        <v>47.659602</v>
+        <v>58.893683</v>
       </c>
       <c r="I10">
-        <v>0.4101029348892478</v>
+        <v>0.4223271270713038</v>
       </c>
       <c r="J10">
-        <v>0.4101029348892478</v>
+        <v>0.4223271270713038</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>15.85269333333333</v>
+        <v>0.270625</v>
       </c>
       <c r="N10">
-        <v>47.55808</v>
+        <v>0.811875</v>
       </c>
       <c r="O10">
-        <v>0.363669005908797</v>
+        <v>0.00651929904432436</v>
       </c>
       <c r="P10">
-        <v>0.363669005908797</v>
+        <v>0.006519299044324359</v>
       </c>
       <c r="Q10">
-        <v>251.8443516315733</v>
+        <v>5.312700987291666</v>
       </c>
       <c r="R10">
-        <v>2266.59916468416</v>
+        <v>47.814308885625</v>
       </c>
       <c r="S10">
-        <v>0.1491417266514528</v>
+        <v>0.002753276835908203</v>
       </c>
       <c r="T10">
-        <v>0.1491417266514529</v>
+        <v>0.002753276835908203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.886534</v>
+        <v>19.63122766666666</v>
       </c>
       <c r="H11">
-        <v>47.659602</v>
+        <v>58.893683</v>
       </c>
       <c r="I11">
-        <v>0.4101029348892478</v>
+        <v>0.4223271270713038</v>
       </c>
       <c r="J11">
-        <v>0.4101029348892478</v>
+        <v>0.4223271270713038</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.803741</v>
       </c>
       <c r="O11">
-        <v>0.2279044246915194</v>
+        <v>0.2393219402230525</v>
       </c>
       <c r="P11">
-        <v>0.2279044246915194</v>
+        <v>0.2393219402230525</v>
       </c>
       <c r="Q11">
-        <v>157.8260482412313</v>
+        <v>195.0280082964559</v>
       </c>
       <c r="R11">
-        <v>1420.434434171082</v>
+        <v>1755.252074668103</v>
       </c>
       <c r="S11">
-        <v>0.09346427344023768</v>
+        <v>0.1010721474595321</v>
       </c>
       <c r="T11">
-        <v>0.09346427344023768</v>
+        <v>0.1010721474595321</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.886534</v>
+        <v>19.63122766666666</v>
       </c>
       <c r="H12">
-        <v>47.659602</v>
+        <v>58.893683</v>
       </c>
       <c r="I12">
-        <v>0.4101029348892478</v>
+        <v>0.4223271270713038</v>
       </c>
       <c r="J12">
-        <v>0.4101029348892478</v>
+        <v>0.4223271270713038</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.95401766666667</v>
+        <v>14.774121</v>
       </c>
       <c r="N12">
-        <v>44.862053</v>
+        <v>44.322363</v>
       </c>
       <c r="O12">
-        <v>0.3430529200829336</v>
+        <v>0.3559054518837227</v>
       </c>
       <c r="P12">
-        <v>0.3430529200829337</v>
+        <v>0.3559054518837226</v>
       </c>
       <c r="Q12">
-        <v>237.5675100981007</v>
+        <v>290.034132925881</v>
       </c>
       <c r="R12">
-        <v>2138.107590882906</v>
+        <v>2610.307196332928</v>
       </c>
       <c r="S12">
-        <v>0.1406870093483377</v>
+        <v>0.1503085270030667</v>
       </c>
       <c r="T12">
-        <v>0.1406870093483377</v>
+        <v>0.1503085270030667</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.886534</v>
+        <v>19.63122766666666</v>
       </c>
       <c r="H13">
-        <v>47.659602</v>
+        <v>58.893683</v>
       </c>
       <c r="I13">
-        <v>0.4101029348892478</v>
+        <v>0.4223271270713038</v>
       </c>
       <c r="J13">
-        <v>0.4101029348892478</v>
+        <v>0.4223271270713038</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.849702333333333</v>
+        <v>16.53203833333334</v>
       </c>
       <c r="N13">
-        <v>8.549106999999999</v>
+        <v>49.596115</v>
       </c>
       <c r="O13">
-        <v>0.06537364931674991</v>
+        <v>0.3982533088489005</v>
       </c>
       <c r="P13">
-        <v>0.06537364931674992</v>
+        <v>0.3982533088489005</v>
       </c>
       <c r="Q13">
-        <v>45.27189300837933</v>
+        <v>324.5442083157272</v>
       </c>
       <c r="R13">
-        <v>407.447037075414</v>
+        <v>2920.897874841545</v>
       </c>
       <c r="S13">
-        <v>0.02680992544921961</v>
+        <v>0.1681931757727968</v>
       </c>
       <c r="T13">
-        <v>0.02680992544921961</v>
+        <v>0.1681931757727968</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.530968000000001</v>
+        <v>6.251301333333333</v>
       </c>
       <c r="H14">
-        <v>13.592904</v>
+        <v>18.753904</v>
       </c>
       <c r="I14">
-        <v>0.1169646742762937</v>
+        <v>0.1344844131702722</v>
       </c>
       <c r="J14">
-        <v>0.1169646742762937</v>
+        <v>0.1344844131702721</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>15.85269333333333</v>
+        <v>0.270625</v>
       </c>
       <c r="N14">
-        <v>47.55808</v>
+        <v>0.811875</v>
       </c>
       <c r="O14">
-        <v>0.363669005908797</v>
+        <v>0.00651929904432436</v>
       </c>
       <c r="P14">
-        <v>0.363669005908797</v>
+        <v>0.006519299044324359</v>
       </c>
       <c r="Q14">
-        <v>71.82804620714667</v>
+        <v>1.691758423333333</v>
       </c>
       <c r="R14">
-        <v>646.45241586432</v>
+        <v>15.22582581</v>
       </c>
       <c r="S14">
-        <v>0.04253642682050598</v>
+        <v>0.0008767441062574777</v>
       </c>
       <c r="T14">
-        <v>0.04253642682050598</v>
+        <v>0.0008767441062574774</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.530968000000001</v>
+        <v>6.251301333333333</v>
       </c>
       <c r="H15">
-        <v>13.592904</v>
+        <v>18.753904</v>
       </c>
       <c r="I15">
-        <v>0.1169646742762937</v>
+        <v>0.1344844131702722</v>
       </c>
       <c r="J15">
-        <v>0.1169646742762937</v>
+        <v>0.1344844131702721</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.803741</v>
       </c>
       <c r="O15">
-        <v>0.2279044246915194</v>
+        <v>0.2393219402230525</v>
       </c>
       <c r="P15">
-        <v>0.2279044246915194</v>
+        <v>0.2393219402230525</v>
       </c>
       <c r="Q15">
-        <v>45.01326558376268</v>
+        <v>62.10405528387378</v>
       </c>
       <c r="R15">
-        <v>405.119390253864</v>
+        <v>558.936497554864</v>
       </c>
       <c r="S15">
-        <v>0.02665676680016969</v>
+        <v>0.03218507068966817</v>
       </c>
       <c r="T15">
-        <v>0.02665676680016968</v>
+        <v>0.03218507068966816</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.530968000000001</v>
+        <v>6.251301333333333</v>
       </c>
       <c r="H16">
-        <v>13.592904</v>
+        <v>18.753904</v>
       </c>
       <c r="I16">
-        <v>0.1169646742762937</v>
+        <v>0.1344844131702722</v>
       </c>
       <c r="J16">
-        <v>0.1169646742762937</v>
+        <v>0.1344844131702721</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.95401766666667</v>
+        <v>14.774121</v>
       </c>
       <c r="N16">
-        <v>44.862053</v>
+        <v>44.322363</v>
       </c>
       <c r="O16">
-        <v>0.3430529200829336</v>
+        <v>0.3559054518837227</v>
       </c>
       <c r="P16">
-        <v>0.3430529200829337</v>
+        <v>0.3559054518837226</v>
       </c>
       <c r="Q16">
-        <v>67.75617551910135</v>
+        <v>92.35748230612799</v>
       </c>
       <c r="R16">
-        <v>609.805579671912</v>
+        <v>831.2173407551519</v>
       </c>
       <c r="S16">
-        <v>0.04012507305703176</v>
+        <v>0.04786373584068298</v>
       </c>
       <c r="T16">
-        <v>0.04012507305703176</v>
+        <v>0.04786373584068296</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.530968000000001</v>
+        <v>6.251301333333333</v>
       </c>
       <c r="H17">
-        <v>13.592904</v>
+        <v>18.753904</v>
       </c>
       <c r="I17">
-        <v>0.1169646742762937</v>
+        <v>0.1344844131702722</v>
       </c>
       <c r="J17">
-        <v>0.1169646742762937</v>
+        <v>0.1344844131702721</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.849702333333333</v>
+        <v>16.53203833333334</v>
       </c>
       <c r="N17">
-        <v>8.549106999999999</v>
+        <v>49.596115</v>
       </c>
       <c r="O17">
-        <v>0.06537364931674991</v>
+        <v>0.3982533088489005</v>
       </c>
       <c r="P17">
-        <v>0.06537364931674992</v>
+        <v>0.3982533088489005</v>
       </c>
       <c r="Q17">
-        <v>12.91191008185867</v>
+        <v>103.3467532758845</v>
       </c>
       <c r="R17">
-        <v>116.207190736728</v>
+        <v>930.12077948296</v>
       </c>
       <c r="S17">
-        <v>0.007646407598586306</v>
+        <v>0.05355886253366354</v>
       </c>
       <c r="T17">
-        <v>0.007646407598586306</v>
+        <v>0.05355886253366352</v>
       </c>
     </row>
   </sheetData>
